--- a/IQC/meeting OQC/Pem_external_apis_forQC.xlsx
+++ b/IQC/meeting OQC/Pem_external_apis_forQC.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2025\2025document\IQC\meeting OQC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70K6885\Desktop\request weigght3\2025document\IQC\meeting OQC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B75FFC-C016-46B9-B677-544C11EECF26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="171">
   <si>
     <t>Name</t>
   </si>
@@ -329,11 +330,305 @@
   <si>
     <t>4M Man status</t>
   </si>
+  <si>
+    <t>LineName</t>
+  </si>
+  <si>
+    <t>NgTypeName</t>
+  </si>
+  <si>
+    <t>StepName</t>
+  </si>
+  <si>
+    <t>ModelName</t>
+  </si>
+  <si>
+    <t>NgReason</t>
+  </si>
+  <si>
+    <t>CreateTime</t>
+  </si>
+  <si>
+    <t>UpdateTime</t>
+  </si>
+  <si>
+    <t>6M</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>D-LR2</t>
+  </si>
+  <si>
+    <t>VS-SGZ20L-V4</t>
+  </si>
+  <si>
+    <t>Function check NG</t>
+  </si>
+  <si>
+    <t>không gài được cáp LCD</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>Handset</t>
+  </si>
+  <si>
+    <t>Test mode</t>
+  </si>
+  <si>
+    <t>KX-TGD323NLG-V4</t>
+  </si>
+  <si>
+    <t>Hard key</t>
+  </si>
+  <si>
+    <t>Cứng Phím 3</t>
+  </si>
+  <si>
+    <t>KX-TGD310FRB-V4</t>
+  </si>
+  <si>
+    <t>LCD have white dot</t>
+  </si>
+  <si>
+    <t>Chấm trắng LCD</t>
+  </si>
+  <si>
+    <t>TV1</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Inspection</t>
+  </si>
+  <si>
+    <t>KV-65Z90AE9</t>
+  </si>
+  <si>
+    <t>Step 10 : Change Mute SW Isp2</t>
+  </si>
+  <si>
+    <t>TXN/A1CZVD (FE thay IC3800A)</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>M-KEY CHECK</t>
+  </si>
+  <si>
+    <t>VL-SE30XLA-V4</t>
+  </si>
+  <si>
+    <t>PNLPMV26KL1VA</t>
+  </si>
+  <si>
+    <t>Noise sound</t>
+  </si>
+  <si>
+    <t>Chuông rè</t>
+  </si>
+  <si>
+    <t>TXN/A1CZVD (FE thay IC3800A, IC3801A)</t>
+  </si>
+  <si>
+    <t>KV-65Z95AEG</t>
+  </si>
+  <si>
+    <t>No sound</t>
+  </si>
+  <si>
+    <t>TXN/A1ENYE (FE thay IC3800, IC3801, IC3802)</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>KV-55Z90AE9</t>
+  </si>
+  <si>
+    <t>NG step 11 "Self check"</t>
+  </si>
+  <si>
+    <t>Thay linh kiện R6810</t>
+  </si>
+  <si>
+    <t>KX-TGD320FRG-V4</t>
+  </si>
+  <si>
+    <t>Liệt phím naviki trên</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>Function &amp; Shipping</t>
+  </si>
+  <si>
+    <t>KX-TG1611FXH-V4</t>
+  </si>
+  <si>
+    <t>Abnormal display</t>
+  </si>
+  <si>
+    <t>LCD hien thi bat thuong</t>
+  </si>
+  <si>
+    <t>M-FUNCTION</t>
+  </si>
+  <si>
+    <t>LOA CAM(LOA 87)</t>
+  </si>
+  <si>
+    <t>Noise LCD / Image</t>
+  </si>
+  <si>
+    <t>MAN HINH NHIEU(PNLPMV26KL1VA)</t>
+  </si>
+  <si>
+    <t>2M</t>
+  </si>
+  <si>
+    <t>Camera</t>
+  </si>
+  <si>
+    <t>LED no light</t>
+  </si>
+  <si>
+    <t>Led ko sang PNLPV522L1TA</t>
+  </si>
+  <si>
+    <t>PT01</t>
+  </si>
+  <si>
+    <t>Lighting</t>
+  </si>
+  <si>
+    <t>PT-MZ11KLBU7-V4</t>
+  </si>
+  <si>
+    <t>Abnormal display: Screen blink</t>
+  </si>
+  <si>
+    <t>Machine</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Man</t>
+  </si>
+  <si>
+    <t>Createtime</t>
+  </si>
+  <si>
+    <t>Updatetime</t>
+  </si>
+  <si>
+    <t>OP-02</t>
+  </si>
+  <si>
+    <t>PA2</t>
+  </si>
+  <si>
+    <t>SB5</t>
+  </si>
+  <si>
+    <t>PT02</t>
+  </si>
+  <si>
+    <t>EW4</t>
+  </si>
+  <si>
+    <t>EW1</t>
+  </si>
+  <si>
+    <t>OP-01</t>
+  </si>
+  <si>
+    <t>MW2</t>
+  </si>
+  <si>
+    <t>MW1</t>
+  </si>
+  <si>
+    <t>7M</t>
+  </si>
+  <si>
+    <t>SB4</t>
+  </si>
+  <si>
+    <t>6OP</t>
+  </si>
+  <si>
+    <t>3M</t>
+  </si>
+  <si>
+    <t>EW3</t>
+  </si>
+  <si>
+    <t>MW3</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>PA1</t>
+  </si>
+  <si>
+    <t>SB1</t>
+  </si>
+  <si>
+    <t>SB2</t>
+  </si>
+  <si>
+    <t>6A</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>SB3</t>
+  </si>
+  <si>
+    <t>4M</t>
+  </si>
+  <si>
+    <t>8C</t>
+  </si>
+  <si>
+    <t>5M</t>
+  </si>
+  <si>
+    <t>PA4</t>
+  </si>
+  <si>
+    <t>5A</t>
+  </si>
+  <si>
+    <t>L8W</t>
+  </si>
+  <si>
+    <t>PA3</t>
+  </si>
+  <si>
+    <t>SB6</t>
+  </si>
+  <si>
+    <t>5OP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -429,32 +724,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -476,10 +747,35 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -833,11 +1129,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="E54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K96" sqref="K96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -854,564 +1150,2279 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="8"/>
+      <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="10" t="s">
+      <c r="H2" s="11"/>
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
     </row>
     <row r="5" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="6" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="6" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="6" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="6" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="6" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="6" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="6" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="6" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="6" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="6" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7" t="s">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="6" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7" t="s">
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="6" t="s">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7" t="s">
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="6" t="s">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7" t="s">
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="6" t="s">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7" t="s">
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="6" t="s">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7" t="s">
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="6" t="s">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7" t="s">
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="6" t="s">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-    </row>
-    <row r="24" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="G24" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="H24" s="17" t="s">
+      <c r="H24" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I24" s="20" t="s">
+      <c r="I24" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="18" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="17" t="s">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H25" s="17" t="s">
+      <c r="H25" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="17" t="s">
+      <c r="I25" s="20"/>
+      <c r="J25" s="18"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H26" s="17" t="s">
+      <c r="H26" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="17" t="s">
+      <c r="I26" s="20"/>
+      <c r="J26" s="18"/>
+    </row>
+    <row r="27" spans="1:18" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="17" t="s">
+      <c r="H27" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="1"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="18"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" t="s">
+        <v>74</v>
+      </c>
+      <c r="H31" t="s">
+        <v>75</v>
+      </c>
+      <c r="I31" t="s">
+        <v>76</v>
+      </c>
+      <c r="J31" t="s">
+        <v>77</v>
+      </c>
+      <c r="K31" t="s">
+        <v>44</v>
+      </c>
+      <c r="L31" t="s">
+        <v>46</v>
+      </c>
+      <c r="M31" t="s">
+        <v>78</v>
+      </c>
+      <c r="N31" t="s">
+        <v>79</v>
+      </c>
+      <c r="O31" t="s">
+        <v>41</v>
+      </c>
+      <c r="P31" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>13</v>
+      </c>
+      <c r="R31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>80</v>
+      </c>
+      <c r="G32" t="s">
+        <v>81</v>
+      </c>
+      <c r="H32" t="s">
+        <v>82</v>
+      </c>
+      <c r="I32" t="s">
+        <v>83</v>
+      </c>
+      <c r="J32" t="s">
+        <v>84</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32" t="s">
+        <v>85</v>
+      </c>
+      <c r="M32" s="10">
+        <v>45566.379621608794</v>
+      </c>
+      <c r="N32" s="10">
+        <v>45567.06492271991</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q32" s="10">
+        <v>45595.556345486111</v>
+      </c>
+      <c r="R32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>87</v>
+      </c>
+      <c r="G33" t="s">
+        <v>88</v>
+      </c>
+      <c r="H33" t="s">
+        <v>89</v>
+      </c>
+      <c r="I33" t="s">
+        <v>90</v>
+      </c>
+      <c r="J33" t="s">
+        <v>91</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33" t="s">
+        <v>92</v>
+      </c>
+      <c r="M33" s="10">
+        <v>45566.313515937502</v>
+      </c>
+      <c r="N33" s="10">
+        <v>45568.296764780091</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q33" s="10">
+        <v>45595.556345717596</v>
+      </c>
+      <c r="R33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G34" t="s">
+        <v>88</v>
+      </c>
+      <c r="H34" t="s">
+        <v>89</v>
+      </c>
+      <c r="I34" t="s">
+        <v>93</v>
+      </c>
+      <c r="J34" t="s">
+        <v>94</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34" t="s">
+        <v>95</v>
+      </c>
+      <c r="M34" s="10">
+        <v>45566.996913738425</v>
+      </c>
+      <c r="N34" s="10">
+        <v>45572.405542511573</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q34" s="10">
+        <v>45595.556345798614</v>
+      </c>
+      <c r="R34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35" t="s">
+        <v>96</v>
+      </c>
+      <c r="G35" t="s">
+        <v>97</v>
+      </c>
+      <c r="H35" t="s">
+        <v>98</v>
+      </c>
+      <c r="I35" t="s">
+        <v>99</v>
+      </c>
+      <c r="J35" t="s">
+        <v>100</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35" t="s">
+        <v>101</v>
+      </c>
+      <c r="M35" s="10">
+        <v>45567.094141284724</v>
+      </c>
+      <c r="N35" s="10">
+        <v>45580.146119791665</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q35" s="10">
+        <v>45595.556345868055</v>
+      </c>
+      <c r="R35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36" t="s">
+        <v>102</v>
+      </c>
+      <c r="G36" t="s">
+        <v>81</v>
+      </c>
+      <c r="H36" t="s">
+        <v>103</v>
+      </c>
+      <c r="I36" t="s">
+        <v>104</v>
+      </c>
+      <c r="J36" t="s">
+        <v>84</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36" t="s">
+        <v>105</v>
+      </c>
+      <c r="M36" s="10">
+        <v>45567.712993020832</v>
+      </c>
+      <c r="N36" s="10">
+        <v>45567.712993020832</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q36" s="10">
+        <v>45595.556345914352</v>
+      </c>
+      <c r="R36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E37">
+        <v>6</v>
+      </c>
+      <c r="F37" t="s">
+        <v>87</v>
+      </c>
+      <c r="G37" t="s">
+        <v>88</v>
+      </c>
+      <c r="H37" t="s">
+        <v>89</v>
+      </c>
+      <c r="I37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J37" t="s">
+        <v>106</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37" t="s">
+        <v>107</v>
+      </c>
+      <c r="M37" s="10">
+        <v>45566.997420949076</v>
+      </c>
+      <c r="N37" s="10">
+        <v>45568.29690552083</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q37" s="10">
+        <v>45595.556345949073</v>
+      </c>
+      <c r="R37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E38">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>96</v>
+      </c>
+      <c r="G38" t="s">
+        <v>97</v>
+      </c>
+      <c r="H38" t="s">
+        <v>98</v>
+      </c>
+      <c r="I38" t="s">
+        <v>99</v>
+      </c>
+      <c r="J38" t="s">
+        <v>100</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38" t="s">
+        <v>108</v>
+      </c>
+      <c r="M38" s="10">
+        <v>45567.094498182872</v>
+      </c>
+      <c r="N38" s="10">
+        <v>45580.146683298612</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q38" s="10">
+        <v>45595.556346030091</v>
+      </c>
+      <c r="R38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E39">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>96</v>
+      </c>
+      <c r="G39" t="s">
+        <v>97</v>
+      </c>
+      <c r="H39" t="s">
+        <v>98</v>
+      </c>
+      <c r="I39" t="s">
+        <v>109</v>
+      </c>
+      <c r="J39" t="s">
+        <v>110</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39" t="s">
+        <v>111</v>
+      </c>
+      <c r="M39" s="10">
+        <v>45566.264457442128</v>
+      </c>
+      <c r="N39" s="10">
+        <v>45580.147843946761</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q39" s="10">
+        <v>45595.556346064812</v>
+      </c>
+      <c r="R39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E40">
+        <v>9</v>
+      </c>
+      <c r="F40" t="s">
+        <v>96</v>
+      </c>
+      <c r="G40" t="s">
+        <v>97</v>
+      </c>
+      <c r="H40" t="s">
+        <v>112</v>
+      </c>
+      <c r="I40" t="s">
+        <v>113</v>
+      </c>
+      <c r="J40" t="s">
+        <v>114</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40" t="s">
+        <v>115</v>
+      </c>
+      <c r="M40" s="10">
+        <v>45568.273865196759</v>
+      </c>
+      <c r="N40" s="10">
+        <v>45568.273865196759</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q40" s="10">
+        <v>45595.556346145837</v>
+      </c>
+      <c r="R40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E41">
+        <v>10</v>
+      </c>
+      <c r="F41" t="s">
+        <v>87</v>
+      </c>
+      <c r="G41" t="s">
+        <v>88</v>
+      </c>
+      <c r="H41" t="s">
+        <v>89</v>
+      </c>
+      <c r="I41" t="s">
+        <v>116</v>
+      </c>
+      <c r="J41" t="s">
+        <v>91</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41" t="s">
+        <v>117</v>
+      </c>
+      <c r="M41" s="10">
+        <v>45566.04575135417</v>
+      </c>
+      <c r="N41" s="10">
+        <v>45568.296626122683</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q41" s="10">
+        <v>45595.556346215279</v>
+      </c>
+      <c r="R41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E42">
+        <v>11</v>
+      </c>
+      <c r="F42" t="s">
+        <v>118</v>
+      </c>
+      <c r="H42" t="s">
+        <v>119</v>
+      </c>
+      <c r="I42" t="s">
+        <v>120</v>
+      </c>
+      <c r="J42" t="s">
+        <v>121</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42" t="s">
+        <v>122</v>
+      </c>
+      <c r="M42" s="10">
+        <v>45566.286006516202</v>
+      </c>
+      <c r="N42" s="10">
+        <v>45568.297372303241</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q42" s="10">
+        <v>45595.556346261576</v>
+      </c>
+      <c r="R42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E43">
+        <v>12</v>
+      </c>
+      <c r="F43" t="s">
+        <v>102</v>
+      </c>
+      <c r="G43" t="s">
+        <v>81</v>
+      </c>
+      <c r="H43" t="s">
+        <v>123</v>
+      </c>
+      <c r="I43" t="s">
+        <v>104</v>
+      </c>
+      <c r="J43" t="s">
+        <v>110</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43" t="s">
+        <v>124</v>
+      </c>
+      <c r="M43" s="10">
+        <v>45568.02858445602</v>
+      </c>
+      <c r="N43" s="10">
+        <v>45569.000646562497</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q43" s="10">
+        <v>45595.556346296296</v>
+      </c>
+      <c r="R43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E44">
+        <v>13</v>
+      </c>
+      <c r="F44" t="s">
+        <v>102</v>
+      </c>
+      <c r="G44" t="s">
+        <v>81</v>
+      </c>
+      <c r="H44" t="s">
+        <v>123</v>
+      </c>
+      <c r="I44" t="s">
+        <v>104</v>
+      </c>
+      <c r="J44" t="s">
+        <v>125</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44" t="s">
+        <v>126</v>
+      </c>
+      <c r="M44" s="10">
+        <v>45568.247781909726</v>
+      </c>
+      <c r="N44" s="10">
+        <v>45569.000961307873</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q44" s="10">
+        <v>45595.556346377314</v>
+      </c>
+      <c r="R44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E45">
+        <v>14</v>
+      </c>
+      <c r="F45" t="s">
+        <v>127</v>
+      </c>
+      <c r="G45" t="s">
+        <v>128</v>
+      </c>
+      <c r="H45" t="s">
+        <v>103</v>
+      </c>
+      <c r="I45" t="s">
+        <v>104</v>
+      </c>
+      <c r="J45" t="s">
+        <v>129</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45" t="s">
+        <v>130</v>
+      </c>
+      <c r="M45" s="10">
+        <v>45568.285216168981</v>
+      </c>
+      <c r="N45" s="10">
+        <v>45569.001375115738</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q45" s="10">
+        <v>45595.556346412035</v>
+      </c>
+      <c r="R45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E46">
+        <v>15</v>
+      </c>
+      <c r="F46" t="s">
+        <v>131</v>
+      </c>
+      <c r="G46" t="s">
+        <v>97</v>
+      </c>
+      <c r="H46" t="s">
+        <v>132</v>
+      </c>
+      <c r="I46" t="s">
+        <v>133</v>
+      </c>
+      <c r="J46" t="s">
+        <v>121</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46" t="s">
+        <v>134</v>
+      </c>
+      <c r="M46" s="10">
+        <v>45568.103271412037</v>
+      </c>
+      <c r="N46" s="10">
+        <v>45581.005343020835</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q46" s="10">
+        <v>45595.556346446756</v>
+      </c>
+      <c r="R46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E51" t="s">
+        <v>31</v>
+      </c>
+      <c r="F51" t="s">
+        <v>135</v>
+      </c>
+      <c r="G51" t="s">
+        <v>2</v>
+      </c>
+      <c r="H51" t="s">
+        <v>136</v>
+      </c>
+      <c r="I51" t="s">
+        <v>137</v>
+      </c>
+      <c r="J51" t="s">
+        <v>73</v>
+      </c>
+      <c r="K51" t="s">
+        <v>138</v>
+      </c>
+      <c r="L51" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="52" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="s">
+        <v>80</v>
+      </c>
+      <c r="K52" s="10">
+        <v>45595.556417476851</v>
+      </c>
+      <c r="L52" s="10">
+        <v>45595.718208020837</v>
+      </c>
+    </row>
+    <row r="53" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="s">
+        <v>140</v>
+      </c>
+      <c r="K53" s="10">
+        <v>45595.556417557869</v>
+      </c>
+      <c r="L53" s="10">
+        <v>45595.718208252314</v>
+      </c>
+    </row>
+    <row r="54" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="s">
+        <v>102</v>
+      </c>
+      <c r="K54" s="10">
+        <v>45595.55641759259</v>
+      </c>
+      <c r="L54" s="10">
+        <v>45595.718208333332</v>
+      </c>
+    </row>
+    <row r="55" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E55">
+        <v>4</v>
+      </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="s">
+        <v>141</v>
+      </c>
+      <c r="K55" s="10">
+        <v>45595.55641759259</v>
+      </c>
+      <c r="L55" s="10">
+        <v>45595.718208368053</v>
+      </c>
+    </row>
+    <row r="56" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E56">
+        <v>5</v>
+      </c>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="s">
+        <v>142</v>
+      </c>
+      <c r="K56" s="10">
+        <v>45595.556417627318</v>
+      </c>
+      <c r="L56" s="10">
+        <v>45595.718208449071</v>
+      </c>
+    </row>
+    <row r="57" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E57">
+        <v>6</v>
+      </c>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="s">
+        <v>143</v>
+      </c>
+      <c r="K57" s="10">
+        <v>45595.556417673608</v>
+      </c>
+      <c r="L57" s="10">
+        <v>45595.718208483799</v>
+      </c>
+    </row>
+    <row r="58" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E58">
+        <v>7</v>
+      </c>
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" t="s">
+        <v>144</v>
+      </c>
+      <c r="K58" s="10">
+        <v>45595.556417708336</v>
+      </c>
+      <c r="L58" s="10">
+        <v>45595.718208564816</v>
+      </c>
+    </row>
+    <row r="59" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E59">
+        <v>8</v>
+      </c>
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" t="s">
+        <v>145</v>
+      </c>
+      <c r="K59" s="10">
+        <v>45595.556417743057</v>
+      </c>
+      <c r="L59" s="10">
+        <v>45595.718208599537</v>
+      </c>
+    </row>
+    <row r="60" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E60">
+        <v>9</v>
+      </c>
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" t="s">
+        <v>146</v>
+      </c>
+      <c r="K60" s="10">
+        <v>45595.556417789354</v>
+      </c>
+      <c r="L60" s="10">
+        <v>45595.718208680555</v>
+      </c>
+    </row>
+    <row r="61" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E61">
+        <v>10</v>
+      </c>
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" t="s">
+        <v>147</v>
+      </c>
+      <c r="K61" s="10">
+        <v>45595.556417789354</v>
+      </c>
+      <c r="L61" s="10">
+        <v>45595.718208715276</v>
+      </c>
+    </row>
+    <row r="62" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E62">
+        <v>11</v>
+      </c>
+      <c r="F62" t="b">
+        <v>0</v>
+      </c>
+      <c r="G62" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" t="s">
+        <v>96</v>
+      </c>
+      <c r="K62" s="10">
+        <v>45595.556417824075</v>
+      </c>
+      <c r="L62" s="10">
+        <v>45595.718208761573</v>
+      </c>
+    </row>
+    <row r="63" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E63">
+        <v>12</v>
+      </c>
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" t="s">
+        <v>148</v>
+      </c>
+      <c r="K63" s="10">
+        <v>45595.556417858796</v>
+      </c>
+      <c r="L63" s="10">
+        <v>45595.718208796294</v>
+      </c>
+    </row>
+    <row r="64" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E64">
+        <v>13</v>
+      </c>
+      <c r="F64" t="b">
+        <v>0</v>
+      </c>
+      <c r="G64" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" t="s">
+        <v>127</v>
+      </c>
+      <c r="K64" s="10">
+        <v>45595.556417858796</v>
+      </c>
+      <c r="L64" s="10">
+        <v>45595.718208877312</v>
+      </c>
+    </row>
+    <row r="65" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E65">
+        <v>14</v>
+      </c>
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+      <c r="G65" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" t="s">
+        <v>149</v>
+      </c>
+      <c r="K65" s="10">
+        <v>45595.556417905093</v>
+      </c>
+      <c r="L65" s="10">
+        <v>45595.718208946761</v>
+      </c>
+    </row>
+    <row r="66" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E66">
+        <v>15</v>
+      </c>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+      <c r="G66" t="b">
+        <v>0</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" t="s">
+        <v>150</v>
+      </c>
+      <c r="K66" s="10">
+        <v>45595.556417939813</v>
+      </c>
+      <c r="L66" s="10">
+        <v>45595.718209062499</v>
+      </c>
+    </row>
+    <row r="67" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E67">
+        <v>16</v>
+      </c>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" t="b">
+        <v>0</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" t="s">
+        <v>151</v>
+      </c>
+      <c r="K67" s="10">
+        <v>45595.556417939813</v>
+      </c>
+      <c r="L67" s="10">
+        <v>45595.718209143517</v>
+      </c>
+    </row>
+    <row r="68" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E68">
+        <v>17</v>
+      </c>
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" t="b">
+        <v>0</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" t="s">
+        <v>131</v>
+      </c>
+      <c r="K68" s="10">
+        <v>45595.556417974534</v>
+      </c>
+      <c r="L68" s="10">
+        <v>45595.718209178238</v>
+      </c>
+    </row>
+    <row r="69" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E69">
+        <v>18</v>
+      </c>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69" t="b">
+        <v>0</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" t="s">
+        <v>152</v>
+      </c>
+      <c r="K69" s="10">
+        <v>45595.556418020831</v>
+      </c>
+      <c r="L69" s="10">
+        <v>45595.718209259256</v>
+      </c>
+    </row>
+    <row r="70" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E70">
+        <v>19</v>
+      </c>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+      <c r="G70" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" t="s">
+        <v>153</v>
+      </c>
+      <c r="K70" s="10">
+        <v>45595.556418055552</v>
+      </c>
+      <c r="L70" s="10">
+        <v>45595.718209293984</v>
+      </c>
+    </row>
+    <row r="71" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E71">
+        <v>20</v>
+      </c>
+      <c r="F71" t="b">
+        <v>0</v>
+      </c>
+      <c r="G71" t="b">
+        <v>0</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" t="s">
+        <v>154</v>
+      </c>
+      <c r="K71" s="10">
+        <v>45595.556418055552</v>
+      </c>
+      <c r="L71" s="10">
+        <v>45595.718209340281</v>
+      </c>
+    </row>
+    <row r="72" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E72">
+        <v>21</v>
+      </c>
+      <c r="F72" t="b">
+        <v>0</v>
+      </c>
+      <c r="G72" t="b">
+        <v>0</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72" t="s">
+        <v>155</v>
+      </c>
+      <c r="K72" s="10">
+        <v>45595.55641809028</v>
+      </c>
+      <c r="L72" s="10">
+        <v>45595.718209375002</v>
+      </c>
+    </row>
+    <row r="73" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E73">
+        <v>22</v>
+      </c>
+      <c r="F73" t="b">
+        <v>0</v>
+      </c>
+      <c r="G73" t="b">
+        <v>0</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="b">
+        <v>0</v>
+      </c>
+      <c r="J73" t="s">
+        <v>156</v>
+      </c>
+      <c r="K73" s="10">
+        <v>45595.55641809028</v>
+      </c>
+      <c r="L73" s="10">
+        <v>45595.718209409722</v>
+      </c>
+    </row>
+    <row r="74" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E74">
+        <v>23</v>
+      </c>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+      <c r="G74" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="b">
+        <v>0</v>
+      </c>
+      <c r="J74" t="s">
+        <v>157</v>
+      </c>
+      <c r="K74" s="10">
+        <v>45595.556418136577</v>
+      </c>
+      <c r="L74" s="10">
+        <v>45595.71820949074</v>
+      </c>
+    </row>
+    <row r="75" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E75">
+        <v>24</v>
+      </c>
+      <c r="F75" t="b">
+        <v>0</v>
+      </c>
+      <c r="G75" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75" t="s">
+        <v>158</v>
+      </c>
+      <c r="K75" s="10">
+        <v>45595.556418171298</v>
+      </c>
+      <c r="L75" s="10">
+        <v>45595.718209525461</v>
+      </c>
+    </row>
+    <row r="76" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E76">
+        <v>25</v>
+      </c>
+      <c r="F76" t="b">
+        <v>0</v>
+      </c>
+      <c r="G76" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="b">
+        <v>0</v>
+      </c>
+      <c r="J76" t="s">
+        <v>159</v>
+      </c>
+      <c r="K76" s="10">
+        <v>45595.556418206019</v>
+      </c>
+      <c r="L76" s="10">
+        <v>45595.718209606479</v>
+      </c>
+    </row>
+    <row r="77" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E77">
+        <v>26</v>
+      </c>
+      <c r="F77" t="b">
+        <v>0</v>
+      </c>
+      <c r="G77" t="b">
+        <v>0</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77" t="s">
+        <v>160</v>
+      </c>
+      <c r="K77" s="10">
+        <v>45595.556418206019</v>
+      </c>
+      <c r="L77" s="10">
+        <v>45595.718209687497</v>
+      </c>
+    </row>
+    <row r="78" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E78">
+        <v>27</v>
+      </c>
+      <c r="F78" t="b">
+        <v>0</v>
+      </c>
+      <c r="G78" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" t="s">
+        <v>161</v>
+      </c>
+      <c r="K78" s="10">
+        <v>45595.556418252316</v>
+      </c>
+      <c r="L78" s="10">
+        <v>45595.718209722225</v>
+      </c>
+    </row>
+    <row r="79" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E79">
+        <v>28</v>
+      </c>
+      <c r="F79" t="b">
+        <v>0</v>
+      </c>
+      <c r="G79" t="b">
+        <v>0</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" t="s">
+        <v>162</v>
+      </c>
+      <c r="K79" s="10">
+        <v>45595.556418287037</v>
+      </c>
+      <c r="L79" s="10">
+        <v>45595.718209803243</v>
+      </c>
+    </row>
+    <row r="80" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E80">
+        <v>29</v>
+      </c>
+      <c r="F80" t="b">
+        <v>0</v>
+      </c>
+      <c r="G80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" t="s">
+        <v>163</v>
+      </c>
+      <c r="K80" s="10">
+        <v>45595.556418287037</v>
+      </c>
+      <c r="L80" s="10">
+        <v>45595.718209837964</v>
+      </c>
+    </row>
+    <row r="81" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E81">
+        <v>30</v>
+      </c>
+      <c r="F81" t="b">
+        <v>0</v>
+      </c>
+      <c r="G81" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" t="s">
+        <v>164</v>
+      </c>
+      <c r="K81" s="10">
+        <v>45595.556418321758</v>
+      </c>
+      <c r="L81" s="10">
+        <v>45595.718209872684</v>
+      </c>
+    </row>
+    <row r="82" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E82">
+        <v>31</v>
+      </c>
+      <c r="F82" t="b">
+        <v>0</v>
+      </c>
+      <c r="G82" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" t="s">
+        <v>118</v>
+      </c>
+      <c r="K82" s="10">
+        <v>45595.556418368054</v>
+      </c>
+      <c r="L82" s="10">
+        <v>45595.718209953702</v>
+      </c>
+    </row>
+    <row r="83" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E83">
+        <v>32</v>
+      </c>
+      <c r="F83" t="b">
+        <v>0</v>
+      </c>
+      <c r="G83" t="b">
+        <v>0</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" t="s">
+        <v>165</v>
+      </c>
+      <c r="K83" s="10">
+        <v>45595.556418368054</v>
+      </c>
+      <c r="L83" s="10">
+        <v>45595.718209988423</v>
+      </c>
+    </row>
+    <row r="84" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E84">
+        <v>33</v>
+      </c>
+      <c r="F84" t="b">
+        <v>0</v>
+      </c>
+      <c r="G84" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" t="s">
+        <v>166</v>
+      </c>
+      <c r="K84" s="10">
+        <v>45595.556418402775</v>
+      </c>
+      <c r="L84" s="10">
+        <v>45595.718210069441</v>
+      </c>
+    </row>
+    <row r="85" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E85">
+        <v>34</v>
+      </c>
+      <c r="F85" t="b">
+        <v>0</v>
+      </c>
+      <c r="G85" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" t="s">
+        <v>167</v>
+      </c>
+      <c r="K85" s="10">
+        <v>45595.556418402775</v>
+      </c>
+      <c r="L85" s="10">
+        <v>45595.718210185187</v>
+      </c>
+    </row>
+    <row r="86" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E86">
+        <v>35</v>
+      </c>
+      <c r="F86" t="b">
+        <v>0</v>
+      </c>
+      <c r="G86" t="b">
+        <v>0</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="b">
+        <v>0</v>
+      </c>
+      <c r="J86" t="s">
+        <v>168</v>
+      </c>
+      <c r="K86" s="10">
+        <v>45595.556418437503</v>
+      </c>
+      <c r="L86" s="10">
+        <v>45595.718210219908</v>
+      </c>
+    </row>
+    <row r="87" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E87">
+        <v>36</v>
+      </c>
+      <c r="F87" t="b">
+        <v>0</v>
+      </c>
+      <c r="G87" t="b">
+        <v>0</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="b">
+        <v>0</v>
+      </c>
+      <c r="J87" t="s">
+        <v>87</v>
+      </c>
+      <c r="K87" s="10">
+        <v>45595.556418483793</v>
+      </c>
+      <c r="L87" s="10">
+        <v>45595.718210300925</v>
+      </c>
+    </row>
+    <row r="88" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E88">
+        <v>37</v>
+      </c>
+      <c r="F88" t="b">
+        <v>0</v>
+      </c>
+      <c r="G88" t="b">
+        <v>0</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" t="s">
+        <v>169</v>
+      </c>
+      <c r="K88" s="10">
+        <v>45595.556418518521</v>
+      </c>
+      <c r="L88" s="10">
+        <v>45595.718210381943</v>
+      </c>
+    </row>
+    <row r="89" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E89">
+        <v>38</v>
+      </c>
+      <c r="F89" t="b">
+        <v>0</v>
+      </c>
+      <c r="G89" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" t="s">
+        <v>170</v>
+      </c>
+      <c r="K89" s="10">
+        <v>45595.556418518521</v>
+      </c>
+      <c r="L89" s="10">
+        <v>45595.718210416664</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -1436,10 +3447,10 @@
     <mergeCell ref="F1:H1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="I3" r:id="rId2"/>
-    <hyperlink ref="B24" r:id="rId3"/>
-    <hyperlink ref="I24" r:id="rId4"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B24" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I24" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
